--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value721.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value721.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218890374735917</v>
+        <v>1.572741746902466</v>
       </c>
       <c r="B1">
-        <v>2.035340881922654</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.929598360636805</v>
+        <v>1.26449716091156</v>
       </c>
       <c r="E1">
-        <v>0.9914336630823957</v>
+        <v>0.7719816565513611</v>
       </c>
     </row>
   </sheetData>
